--- a/Check_list.xlsx
+++ b/Check_list.xlsx
@@ -396,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -404,29 +404,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -730,25 +746,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="153.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="153.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -756,161 +773,161 @@
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -918,150 +935,150 @@
       <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1069,249 +1086,249 @@
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1319,262 +1336,262 @@
       <c r="A59" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+      <c r="B79" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>15</v>
       </c>
     </row>
